--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/5_Aksaray_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/5_Aksaray_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63E3B917-2440-4AC8-BD3E-EFCA011A7C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19B6959B-CD24-4382-8564-20DB5D18491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{32846476-CED1-4128-A1E2-AD7D4EBD9B3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{17617F15-E848-4358-BA3D-F6C993541324}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -914,14 +914,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00A7885A-87AF-41E9-863F-1688B0377C84}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{42886764-FC4B-4F15-902C-073F713E383F}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{506E3EF7-5096-47F7-9F25-B8F4663BBFAD}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{C5F0CFC4-CE08-4B51-9D07-0F72ACDBC73D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{335C8EDF-3D5E-4890-B93C-2DEF7E2272E8}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{F73646A7-6491-40A8-8399-7A98067B4BD4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F4A9ABA5-7BE8-4333-A958-C18B035CAF84}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3B7F430C-45CC-4A2A-8B12-BB2862CB0BD5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7BF040FF-2B33-4F77-ABA8-D48F9F198C11}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C906F661-1B04-4395-8917-110397C6D8E6}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{23905080-FC5E-4C6D-A673-52378567B065}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F2F2B96F-C76C-4533-9F0B-6808C0C247C2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{65464ECB-D459-42EF-83A8-A0C50BB797FB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{32E5B41D-4E44-48BD-B1EC-5E90F9FCE1F9}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{5D026CC6-C739-4257-B1ED-351EB8F3DB69}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{228AE4DF-FFF9-4E0A-AAD8-38C86F7E940B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1291,7 +1291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622D7642-C82F-40CE-9863-10DBD07C5743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5066379E-4FBE-4839-A06F-7F60BD671E13}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2566,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87045B0-0815-48B3-A6FF-9BAFC6839BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DC7FC0-D412-4943-B7EF-B1ABA743E852}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3842,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1132C0F-A393-4E20-AEFF-620734342D0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5862DDC-7A1D-4729-A07F-25C5940A5228}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5118,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAF9057-184D-4BB9-B76D-4628299EE5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3FB040-5495-473A-963C-7C20CF3F0C27}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6382,7 +6382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D0A94A-8568-49B1-8514-6BE777D5723E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D71752-5E3F-4F68-88A9-BA21B3DABD8A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7659,7 +7659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071A12DC-507F-4C65-9458-4B5064B256D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C61E70C-5C1E-46C5-B1DF-363511B875D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8934,7 +8934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EC1E47-D045-4F65-88A2-62C9D18AA097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C381C4E3-2A75-4C89-8652-9956AE32D4F3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10207,7 +10207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF4C69F-DA51-472E-82A2-9541536287D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FD5C44-A2F1-4B33-9BAE-B7FC813EE210}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11478,7 +11478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF7DE6F-3856-4FDB-BC6E-E1213C208600}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E8BD22-0F34-41A5-9D2D-66BAF03F7B40}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12755,7 +12755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3E85C0-D70D-47A8-B42D-3E41EBCA7545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF40C86-B725-4B0A-8AF5-B62AB1A182AF}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14027,7 +14027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F989F2-1AF9-49F6-B715-D530687754E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A3AE03-ACA6-4B3C-AA11-A36CF1104B97}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15301,7 +15301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B75B44-D804-4C75-A1C7-F2BF0D88090C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0739773A-E1A9-4580-8C8E-6C09D1EBB340}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
